--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.1504655125689</v>
+        <v>63.211268</v>
       </c>
       <c r="H2">
-        <v>57.1504655125689</v>
+        <v>189.633804</v>
       </c>
       <c r="I2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.26503832561804</v>
+        <v>2.172943</v>
       </c>
       <c r="N2">
-        <v>1.26503832561804</v>
+        <v>6.518829</v>
       </c>
       <c r="O2">
-        <v>0.1097440165061612</v>
+        <v>0.1731236386970244</v>
       </c>
       <c r="P2">
-        <v>0.1097440165061612</v>
+        <v>0.1731236386970244</v>
       </c>
       <c r="Q2">
-        <v>72.2975292003117</v>
+        <v>137.354482321724</v>
       </c>
       <c r="R2">
-        <v>72.2975292003117</v>
+        <v>1236.190340895516</v>
       </c>
       <c r="S2">
-        <v>0.05142893743055959</v>
+        <v>0.0852220135291008</v>
       </c>
       <c r="T2">
-        <v>0.05142893743055959</v>
+        <v>0.08522201352910082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.1504655125689</v>
+        <v>63.211268</v>
       </c>
       <c r="H3">
-        <v>57.1504655125689</v>
+        <v>189.633804</v>
       </c>
       <c r="I3">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J3">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.88608084643041</v>
+        <v>8.934372</v>
       </c>
       <c r="N3">
-        <v>8.88608084643041</v>
+        <v>26.803116</v>
       </c>
       <c r="O3">
-        <v>0.7708811530348745</v>
+        <v>0.7118230851489483</v>
       </c>
       <c r="P3">
-        <v>0.7708811530348745</v>
+        <v>0.7118230851489484</v>
       </c>
       <c r="Q3">
-        <v>507.8436569558202</v>
+        <v>564.752982903696</v>
       </c>
       <c r="R3">
-        <v>507.8436569558202</v>
+        <v>5082.776846133263</v>
       </c>
       <c r="S3">
-        <v>0.3612552178059059</v>
+        <v>0.3504027355793591</v>
       </c>
       <c r="T3">
-        <v>0.3612552178059059</v>
+        <v>0.3504027355793592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.1504655125689</v>
+        <v>63.211268</v>
       </c>
       <c r="H4">
-        <v>57.1504655125689</v>
+        <v>189.633804</v>
       </c>
       <c r="I4">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J4">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.37605438959187</v>
+        <v>1.444079</v>
       </c>
       <c r="N4">
-        <v>1.37605438959187</v>
+        <v>4.332237</v>
       </c>
       <c r="O4">
-        <v>0.1193748304589644</v>
+        <v>0.1150532761540272</v>
       </c>
       <c r="P4">
-        <v>0.1193748304589644</v>
+        <v>0.1150532761540272</v>
       </c>
       <c r="Q4">
-        <v>78.64214893578921</v>
+        <v>91.28206468217201</v>
       </c>
       <c r="R4">
-        <v>78.64214893578921</v>
+        <v>821.538582139548</v>
       </c>
       <c r="S4">
-        <v>0.05594219058050486</v>
+        <v>0.05663623945731221</v>
       </c>
       <c r="T4">
-        <v>0.05594219058050486</v>
+        <v>0.05663623945731221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.0001042650496</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H5">
-        <v>43.0001042650496</v>
+        <v>129.921204</v>
       </c>
       <c r="I5">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J5">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.26503832561804</v>
+        <v>2.172943</v>
       </c>
       <c r="N5">
-        <v>1.26503832561804</v>
+        <v>6.518829</v>
       </c>
       <c r="O5">
-        <v>0.1097440165061612</v>
+        <v>0.1731236386970244</v>
       </c>
       <c r="P5">
-        <v>0.1097440165061612</v>
+        <v>0.1731236386970244</v>
       </c>
       <c r="Q5">
-        <v>54.39677990085949</v>
+        <v>94.10379026112399</v>
       </c>
       <c r="R5">
-        <v>54.39677990085949</v>
+        <v>846.9341123501159</v>
       </c>
       <c r="S5">
-        <v>0.0386952171241443</v>
+        <v>0.0583869878231471</v>
       </c>
       <c r="T5">
-        <v>0.0386952171241443</v>
+        <v>0.05838698782314711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.0001042650496</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H6">
-        <v>43.0001042650496</v>
+        <v>129.921204</v>
       </c>
       <c r="I6">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J6">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.88608084643041</v>
+        <v>8.934372</v>
       </c>
       <c r="N6">
-        <v>8.88608084643041</v>
+        <v>26.803116</v>
       </c>
       <c r="O6">
-        <v>0.7708811530348745</v>
+        <v>0.7118230851489483</v>
       </c>
       <c r="P6">
-        <v>0.7708811530348745</v>
+        <v>0.7118230851489484</v>
       </c>
       <c r="Q6">
-        <v>382.1024029041678</v>
+        <v>386.9214557412959</v>
       </c>
       <c r="R6">
-        <v>382.1024029041678</v>
+        <v>3482.293101671663</v>
       </c>
       <c r="S6">
-        <v>0.2718090201475404</v>
+        <v>0.2400666143435269</v>
       </c>
       <c r="T6">
-        <v>0.2718090201475404</v>
+        <v>0.2400666143435269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>43.0001042650496</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H7">
-        <v>43.0001042650496</v>
+        <v>129.921204</v>
       </c>
       <c r="I7">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J7">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.37605438959187</v>
+        <v>1.444079</v>
       </c>
       <c r="N7">
-        <v>1.37605438959187</v>
+        <v>4.332237</v>
       </c>
       <c r="O7">
-        <v>0.1193748304589644</v>
+        <v>0.1150532761540272</v>
       </c>
       <c r="P7">
-        <v>0.1193748304589644</v>
+        <v>0.1150532761540272</v>
       </c>
       <c r="Q7">
-        <v>59.17048222682959</v>
+        <v>62.538827450372</v>
       </c>
       <c r="R7">
-        <v>59.17048222682959</v>
+        <v>562.8494470533479</v>
       </c>
       <c r="S7">
-        <v>0.04209099621853381</v>
+        <v>0.03880240898572233</v>
       </c>
       <c r="T7">
-        <v>0.04209099621853381</v>
+        <v>0.03880240898572233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.8025940227154</v>
+        <v>21.891734</v>
       </c>
       <c r="H8">
-        <v>21.8025940227154</v>
+        <v>65.675202</v>
       </c>
       <c r="I8">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="J8">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.26503832561804</v>
+        <v>2.172943</v>
       </c>
       <c r="N8">
-        <v>1.26503832561804</v>
+        <v>6.518829</v>
       </c>
       <c r="O8">
-        <v>0.1097440165061612</v>
+        <v>0.1731236386970244</v>
       </c>
       <c r="P8">
-        <v>0.1097440165061612</v>
+        <v>0.1731236386970244</v>
       </c>
       <c r="Q8">
-        <v>27.58111703662578</v>
+        <v>47.569490153162</v>
       </c>
       <c r="R8">
-        <v>27.58111703662578</v>
+        <v>428.125411378458</v>
       </c>
       <c r="S8">
-        <v>0.01961986195145729</v>
+        <v>0.02951463734477651</v>
       </c>
       <c r="T8">
-        <v>0.01961986195145729</v>
+        <v>0.02951463734477651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.8025940227154</v>
+        <v>21.891734</v>
       </c>
       <c r="H9">
-        <v>21.8025940227154</v>
+        <v>65.675202</v>
       </c>
       <c r="I9">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="J9">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.88608084643041</v>
+        <v>8.934372</v>
       </c>
       <c r="N9">
-        <v>8.88608084643041</v>
+        <v>26.803116</v>
       </c>
       <c r="O9">
-        <v>0.7708811530348745</v>
+        <v>0.7118230851489483</v>
       </c>
       <c r="P9">
-        <v>0.7708811530348745</v>
+        <v>0.7118230851489484</v>
       </c>
       <c r="Q9">
-        <v>193.7396131477495</v>
+        <v>195.588895281048</v>
       </c>
       <c r="R9">
-        <v>193.7396131477495</v>
+        <v>1760.300057529432</v>
       </c>
       <c r="S9">
-        <v>0.1378169150814281</v>
+        <v>0.1213537352260623</v>
       </c>
       <c r="T9">
-        <v>0.1378169150814281</v>
+        <v>0.1213537352260623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.8025940227154</v>
+        <v>21.891734</v>
       </c>
       <c r="H10">
-        <v>21.8025940227154</v>
+        <v>65.675202</v>
       </c>
       <c r="I10">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="J10">
-        <v>0.1787784206928111</v>
+        <v>0.1704830002818315</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.37605438959187</v>
+        <v>1.444079</v>
       </c>
       <c r="N10">
-        <v>1.37605438959187</v>
+        <v>4.332237</v>
       </c>
       <c r="O10">
-        <v>0.1193748304589644</v>
+        <v>0.1150532761540272</v>
       </c>
       <c r="P10">
-        <v>0.1193748304589644</v>
+        <v>0.1150532761540272</v>
       </c>
       <c r="Q10">
-        <v>30.00155520944699</v>
+        <v>31.613393342986</v>
       </c>
       <c r="R10">
-        <v>30.00155520944699</v>
+        <v>284.520540086874</v>
       </c>
       <c r="S10">
-        <v>0.02134164365992574</v>
+        <v>0.01961462771099266</v>
       </c>
       <c r="T10">
-        <v>0.02134164365992574</v>
+        <v>0.01961462771099265</v>
       </c>
     </row>
   </sheetData>
